--- a/InputData/bldgs/PEUDfSbQL/Perc E Use Difference from Std by Qual Level.xlsx
+++ b/InputData/bldgs/PEUDfSbQL/Perc E Use Difference from Std by Qual Level.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kieran\Dropbox\eps-1.4.1-canada-wipC\InputData\bldgs\PEUDfSbQL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F12D00F-6872-4EA4-B376-DF219A45B067}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="20115" windowHeight="11310"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="20115" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -12,12 +18,19 @@
     <sheet name="Calculations" sheetId="4" r:id="rId3"/>
     <sheet name="PEUDfSbQL" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179017"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="109">
   <si>
     <t>Source:</t>
   </si>
@@ -58,36 +71,6 @@
     <t>ceiling fans</t>
   </si>
   <si>
-    <t>http://www.energystar.gov/certified-products/detail/air_conditioning_central</t>
-  </si>
-  <si>
-    <t>http://www.energystar.gov/certified-products/detail/air_conditioning_room</t>
-  </si>
-  <si>
-    <t>http://www.energystar.gov/certified-products/detail/boilers</t>
-  </si>
-  <si>
-    <t>http://www.energystar.gov/certified-products/detail/fans_ventilating</t>
-  </si>
-  <si>
-    <t>http://www.energystar.gov/certified-products/detail/furnaces</t>
-  </si>
-  <si>
-    <t>http://www.energystar.gov/certified-products/detail/heat_pumps_air_source</t>
-  </si>
-  <si>
-    <t>http://www.energystar.gov/certified-products/detail/heat_pumps_geothermal</t>
-  </si>
-  <si>
-    <t>http://www.energystar.gov/certified-products/detail/fans_ceiling</t>
-  </si>
-  <si>
-    <t>http://www.energystar.gov/certified-products/detail/residential_windows_doors_and_skylights</t>
-  </si>
-  <si>
-    <t>http://www.energystar.gov/certified-products/detail/roof_products</t>
-  </si>
-  <si>
     <t>n/a</t>
   </si>
   <si>
@@ -175,48 +158,6 @@
     <t>ice machine</t>
   </si>
   <si>
-    <t>http://www.energystar.gov/certified-products/detail/clothes_washers</t>
-  </si>
-  <si>
-    <t>http://www.energystar.gov/certified-products/detail/commercial_dishwashers</t>
-  </si>
-  <si>
-    <t>http://www.energystar.gov/certified-products/detail/freezers</t>
-  </si>
-  <si>
-    <t>http://www.energystar.gov/certified-products/detail/commercial_refrigerators_freezers</t>
-  </si>
-  <si>
-    <t>http://www.energystar.gov/certified-products/detail/refrigerators</t>
-  </si>
-  <si>
-    <t>http://www.energystar.gov/certified-products/detail/air_purifiers_cleaners</t>
-  </si>
-  <si>
-    <t>http://www.energystar.gov/certified-products/detail/water_coolers</t>
-  </si>
-  <si>
-    <t>http://www.energystar.gov/certified-products/detail/computers</t>
-  </si>
-  <si>
-    <t>http://www.energystar.gov/certified-products/detail/set_top_boxes_cable_boxes</t>
-  </si>
-  <si>
-    <t>http://www.energystar.gov/certified-products/detail/audiovideo</t>
-  </si>
-  <si>
-    <t>http://www.energystar.gov/certified-products/detail/televisions</t>
-  </si>
-  <si>
-    <t>http://www.energystar.gov/certified-products/detail/commercial_ovens</t>
-  </si>
-  <si>
-    <t>http://www.energystar.gov/certified-products/detail/vending_machines</t>
-  </si>
-  <si>
-    <t>http://www.energystar.gov/certified-products/detail/commercial_ice_makers</t>
-  </si>
-  <si>
     <t>commercial oven</t>
   </si>
   <si>
@@ -268,15 +209,6 @@
     <t>battery chargers</t>
   </si>
   <si>
-    <t>http://www.energystar.gov/certified-products/detail/pool_pumps</t>
-  </si>
-  <si>
-    <t>http://www.energystar.gov/certified-products/detail/imaging_equipment</t>
-  </si>
-  <si>
-    <t>http://www.energystar.gov/certified-products/detail/battery_chargers?fuseaction=find_a_product.showProductGroup&amp;pgw_code=BCH</t>
-  </si>
-  <si>
     <t>Model incandescent bulb</t>
   </si>
   <si>
@@ -341,12 +273,96 @@
   </si>
   <si>
     <t>Rural Residential</t>
+  </si>
+  <si>
+    <t>https://www.energystar.gov/products/heating_cooling/boilers</t>
+  </si>
+  <si>
+    <t>https://www.energystar.gov/products/heating_cooling/commercial_boilers</t>
+  </si>
+  <si>
+    <t>https://www.energystar.gov/products/heating_cooling/furnaces</t>
+  </si>
+  <si>
+    <t>https://www.energystar.gov/products/heating_cooling/air_conditioning_central</t>
+  </si>
+  <si>
+    <t>https://www.energystar.gov/products/heating_cooling/air_conditioning_room</t>
+  </si>
+  <si>
+    <t>https://www.energystar.gov/products/heating_cooling/fans_ventilating</t>
+  </si>
+  <si>
+    <t>https://www.energystar.gov/products/heating_cooling/heat_pumps_air_source</t>
+  </si>
+  <si>
+    <t>https://www.energystar.gov/products/heating_cooling/heat_pumps_geothermal</t>
+  </si>
+  <si>
+    <t>https://www.energystar.gov/products/lighting_fans/ceiling_fans</t>
+  </si>
+  <si>
+    <t>https://www.energystar.gov/products/building_products/residential_windows_doors_and_skylights</t>
+  </si>
+  <si>
+    <t>https://www.energystar.gov/products/building_products/roof_products</t>
+  </si>
+  <si>
+    <t>https://www.energystar.gov/products/appliances/clothes_washers</t>
+  </si>
+  <si>
+    <t>https://www.energystar.gov/products/appliances/commercial_clothes_washers</t>
+  </si>
+  <si>
+    <t>https://www.energystar.gov/products/appliances/dishwashers</t>
+  </si>
+  <si>
+    <t>https://www.energystar.gov/products/appliances/freezers</t>
+  </si>
+  <si>
+    <t>https://www.energystar.gov/products/commercial_food_service_equipment/commercial_refrigerators_freezers</t>
+  </si>
+  <si>
+    <t>https://www.energystar.gov/products/appliances/refrigerators</t>
+  </si>
+  <si>
+    <t>https://www.energystar.gov/products/appliances/air_purifiers_cleaners</t>
+  </si>
+  <si>
+    <t>https://www.energystar.gov/products/other/water_coolers</t>
+  </si>
+  <si>
+    <t>https://www.energystar.gov/products/commercial_food_service_equipment/commercial_ovens</t>
+  </si>
+  <si>
+    <t>https://www.energystar.gov/products/other/vending_machines</t>
+  </si>
+  <si>
+    <t>https://www.energystar.gov/products/commercial_food_service_equipment/commercial_ice_makers</t>
+  </si>
+  <si>
+    <t>https://www.energystar.gov/products/other/pool_pumps</t>
+  </si>
+  <si>
+    <t>https://www.energystar.gov/products/office_equipment/imaging_equipment</t>
+  </si>
+  <si>
+    <t>link no longer available</t>
+  </si>
+  <si>
+    <t>https://www.energystar.gov/products/electronics/set_top_boxes_cable_boxes</t>
+  </si>
+  <si>
+    <t>https://www.energystar.gov/products/electronics/audiovideo</t>
+  </si>
+  <si>
+    <t>https://www.energystar.gov/products/electronics/televisions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -437,7 +453,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -447,7 +463,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -462,12 +477,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -522,6 +534,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -569,7 +584,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -602,9 +617,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -637,6 +669,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -812,10 +861,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -824,7 +873,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -842,58 +891,58 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>76</v>
+      <c r="A9" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>77</v>
+      <c r="A15" s="20" t="s">
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -903,17 +952,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="5" customWidth="1"/>
     <col min="5" max="5" width="21.140625" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
   </cols>
@@ -926,10 +977,10 @@
         <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -939,674 +990,655 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>101</v>
+      <c r="A2" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>0.06</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>0.06</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>24</v>
+      <c r="E2" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>101</v>
+      <c r="A3" s="27" t="s">
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="23">
         <f>AVERAGE(0.12,0.16)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>23</v>
+      <c r="D3" s="8"/>
+      <c r="E3" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="12">
+      <c r="A4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="11">
         <f>AVERAGE(C2:C3)</f>
         <v>0.1</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <f>AVERAGE(D2:D3)</f>
         <v>0.06</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>0.15</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>0.15</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>24</v>
+      <c r="E6" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>99</v>
+      <c r="A7" s="27" t="s">
+        <v>72</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>0.15</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>23</v>
+      <c r="D7" s="7"/>
+      <c r="E7" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>99</v>
+      <c r="A8" s="27" t="s">
+        <v>72</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>0.7</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>0.7</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>24</v>
+      <c r="E8" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
-        <v>99</v>
+      <c r="A9" s="27" t="s">
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="8">
+        <v>22</v>
+      </c>
+      <c r="C9" s="7">
         <v>0.09</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>0.45</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>0.45</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>24</v>
+      <c r="E10" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>99</v>
+      <c r="A11" s="27" t="s">
+        <v>72</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>0.6</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11">
+      <c r="D11" s="8"/>
+      <c r="E11" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10">
         <f>AVERAGE(C6:C11)</f>
         <v>0.35666666666666669</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <f>AVERAGE(D6:D11)</f>
         <v>0.43333333333333335</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>100</v>
+      <c r="A14" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="27">
+        <v>24</v>
+      </c>
+      <c r="C14" s="23">
         <f>AVERAGE(0.07,0.15)</f>
         <v>0.11</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="23">
         <f>AVERAGE(0.07,0.15)</f>
         <v>0.11</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>24</v>
+      <c r="E14" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>100</v>
+      <c r="A15" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="28">
+        <v>25</v>
+      </c>
+      <c r="C15" s="24">
         <f>AVERAGE(0.1,0.15)</f>
         <v>0.125</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="24">
         <f>AVERAGE(0.1,0.15)</f>
         <v>0.125</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>24</v>
+      <c r="E15" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11">
+      <c r="A16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10">
         <f>AVERAGE(C14:C15)</f>
         <v>0.11749999999999999</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <f>AVERAGE(D14:D15)</f>
         <v>0.11749999999999999</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="15">
+      <c r="A18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="13">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="13">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E18" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>24</v>
+      <c r="E18" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="12">
+      <c r="A19" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="11">
         <f>AVERAGE(C18:C18)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <f>AVERAGE(D18:D18)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="D21" s="15">
+        <v>0.37</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="15">
+        <v>0.17</v>
+      </c>
+      <c r="D22" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="D23" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="15">
+        <v>0.35</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="D21" s="18">
-        <v>0.37</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="16" t="s">
+      <c r="C28" s="15"/>
+      <c r="D28" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="18">
-        <v>0.17</v>
-      </c>
-      <c r="D22" s="18">
-        <v>0.4</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="D23" s="18">
-        <v>0.35</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="D24" s="18">
-        <v>0.35</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="18">
-        <v>0.4</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18">
-        <v>0.2</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="16" t="s">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18">
-        <v>0.15</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="12">
+      <c r="B30" s="9"/>
+      <c r="C30" s="11">
         <f>AVERAGE(C21:C29)</f>
         <v>0.21399999999999997</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="11">
         <f>AVERAGE(D21:D29)</f>
         <v>0.35250000000000004</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="29">
+        <v>55</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="25">
         <f>AVERAGE(0.3,0.72)</f>
         <v>0.51</v>
       </c>
-      <c r="E32" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" s="31" t="s">
-        <v>23</v>
+      <c r="E32" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="29">
+      <c r="A33" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="25">
         <f>AVERAGE(0.4,0.55)</f>
         <v>0.47500000000000003</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D33" s="25">
         <f>AVERAGE(0.4,0.55)</f>
         <v>0.47500000000000003</v>
       </c>
-      <c r="E33" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="31" t="s">
-        <v>24</v>
+      <c r="E33" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="32">
+      <c r="A34" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="28">
         <v>0.3</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="28">
         <v>0.3</v>
       </c>
-      <c r="E34" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="31" t="s">
-        <v>24</v>
+      <c r="E34" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="26">
+      <c r="A35" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="22">
         <f>AVERAGE(0.3,0.65)</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="D35" s="26">
+      <c r="D35" s="22">
         <f>AVERAGE(0.3,0.65)</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="E35" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" s="31" t="s">
-        <v>24</v>
+      <c r="E35" s="32" t="str">
+        <f>E34</f>
+        <v>link no longer available</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="18">
+      <c r="A36" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="15">
         <v>0.45</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="15">
         <v>0.45</v>
       </c>
-      <c r="E36" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="F36" s="31" t="s">
-        <v>24</v>
+      <c r="E36" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="37">
+      <c r="A37" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="33">
         <f>AVERAGE(0.45,0.6)</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="D37" s="37">
+      <c r="D37" s="33">
         <f>AVERAGE(0.45,0.6)</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="E37" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37" s="31" t="s">
-        <v>24</v>
+      <c r="E37" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="18">
+      <c r="A38" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="15">
         <v>0.25</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="15">
         <v>0.25</v>
       </c>
-      <c r="E38" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="F38" s="31" t="s">
-        <v>24</v>
+      <c r="E38" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="12">
+      <c r="A39" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="11">
         <f>AVERAGE(C32:C38)</f>
         <v>0.42642857142857149</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="11">
         <f>AVERAGE(D32:D38)</f>
         <v>0.41250000000000003</v>
       </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1"/>
-    <hyperlink ref="E7" r:id="rId2"/>
-    <hyperlink ref="E2" r:id="rId3"/>
-    <hyperlink ref="E8" r:id="rId4"/>
-    <hyperlink ref="E3" r:id="rId5"/>
-    <hyperlink ref="E9" r:id="rId6"/>
-    <hyperlink ref="E10" r:id="rId7"/>
-    <hyperlink ref="E11" r:id="rId8"/>
-    <hyperlink ref="E21" r:id="rId9"/>
-    <hyperlink ref="F21" r:id="rId10"/>
-    <hyperlink ref="F22" r:id="rId11"/>
-    <hyperlink ref="E23" r:id="rId12"/>
-    <hyperlink ref="E25" r:id="rId13"/>
-    <hyperlink ref="F26" r:id="rId14"/>
-    <hyperlink ref="E35" r:id="rId15"/>
-    <hyperlink ref="E36" r:id="rId16"/>
-    <hyperlink ref="E37" r:id="rId17"/>
-    <hyperlink ref="E38" r:id="rId18"/>
-    <hyperlink ref="F23" r:id="rId19"/>
-    <hyperlink ref="E24" r:id="rId20"/>
-    <hyperlink ref="F27" r:id="rId21"/>
-    <hyperlink ref="F28" r:id="rId22"/>
-    <hyperlink ref="F29" r:id="rId23"/>
-    <hyperlink ref="E32" r:id="rId24"/>
-    <hyperlink ref="E33" r:id="rId25"/>
+    <hyperlink ref="E35" r:id="rId1" display="http://www.energystar.gov/certified-products/detail/computers" xr:uid="{DDEA9114-C89A-488D-8B82-9A66CFCCB0A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -1616,131 +1648,131 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" style="20" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="20" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="25" style="16" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>91</v>
+      <c r="A1" s="19" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="20">
+      <c r="A2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="16">
         <v>75</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>89</v>
+      <c r="C2" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="20">
+      <c r="A3" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="16">
         <v>53</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>89</v>
+      <c r="C3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="20">
+      <c r="A4" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="16">
         <f>0.3*B2</f>
         <v>22.5</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>89</v>
+      <c r="C4" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="38">
+      <c r="A5" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="34">
         <f>(B3-B4)/B3</f>
         <v>0.57547169811320753</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>90</v>
+      <c r="A7" s="19" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="20">
+      <c r="A8" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="16">
         <v>355</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>71</v>
+      <c r="C8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="20">
+      <c r="A9" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="16">
         <v>295</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>72</v>
+      <c r="C9" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="39">
+      <c r="A10" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="35">
         <f>(B8-B9)/B8</f>
         <v>0.16901408450704225</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1"/>
-    <hyperlink ref="D9" r:id="rId2"/>
-    <hyperlink ref="D2" r:id="rId3"/>
-    <hyperlink ref="D3" r:id="rId4"/>
-    <hyperlink ref="D4" r:id="rId5"/>
+    <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D9" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -1751,119 +1783,119 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="3" width="19" style="9" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="9" customWidth="1"/>
+    <col min="2" max="3" width="19" style="8" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>105</v>
+      <c r="B1" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="40">
+      <c r="A2" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="36">
         <f>-Data!C4</f>
         <v>-0.1</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="36">
         <f>B2</f>
         <v>-0.1</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="36">
         <f>-Data!D4</f>
         <v>-0.06</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="40">
+      <c r="A3" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="36">
         <f>-Data!C12</f>
         <v>-0.35666666666666669</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="36">
         <f t="shared" ref="C3:C7" si="0">B3</f>
         <v>-0.35666666666666669</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="36">
         <f>-Data!D12</f>
         <v>-0.43333333333333335</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="40">
+      <c r="A4" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="36">
         <f>-Data!C16</f>
         <v>-0.11749999999999999</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="36">
         <f t="shared" si="0"/>
         <v>-0.11749999999999999</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="36">
         <f>-Data!D16</f>
         <v>-0.11749999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="40">
+      <c r="A5" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="36">
         <f>-Data!C19</f>
         <v>-0.57999999999999996</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="36">
         <f t="shared" si="0"/>
         <v>-0.57999999999999996</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="36">
         <f>-Data!D19</f>
         <v>-0.57999999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="40">
+      <c r="A6" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="36">
         <f>-Data!C30</f>
         <v>-0.21399999999999997</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="36">
         <f t="shared" si="0"/>
         <v>-0.21399999999999997</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="36">
         <f>-Data!D30</f>
         <v>-0.35250000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="40">
+      <c r="A7" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="36">
         <f>-Data!C39</f>
         <v>-0.42642857142857149</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="36">
         <f t="shared" si="0"/>
         <v>-0.42642857142857149</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="36">
         <f>-Data!D39</f>
         <v>-0.41250000000000003</v>
       </c>

--- a/InputData/bldgs/PEUDfSbQL/Perc E Use Difference from Std by Qual Level.xlsx
+++ b/InputData/bldgs/PEUDfSbQL/Perc E Use Difference from Std by Qual Level.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kieran\Dropbox\eps-1.4.1-canada-wipC\InputData\bldgs\PEUDfSbQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\bldgs\PEUDfSbQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F12D00F-6872-4EA4-B376-DF219A45B067}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="20115" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="20115" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,19 +17,12 @@
     <sheet name="Calculations" sheetId="4" r:id="rId3"/>
     <sheet name="PEUDfSbQL" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="111">
   <si>
     <t>Source:</t>
   </si>
@@ -71,6 +63,36 @@
     <t>ceiling fans</t>
   </si>
   <si>
+    <t>http://www.energystar.gov/certified-products/detail/air_conditioning_central</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/air_conditioning_room</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/boilers</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/fans_ventilating</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/furnaces</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/heat_pumps_air_source</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/heat_pumps_geothermal</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/fans_ceiling</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/residential_windows_doors_and_skylights</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/roof_products</t>
+  </si>
+  <si>
     <t>n/a</t>
   </si>
   <si>
@@ -158,6 +180,48 @@
     <t>ice machine</t>
   </si>
   <si>
+    <t>http://www.energystar.gov/certified-products/detail/clothes_washers</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/commercial_dishwashers</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/freezers</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/commercial_refrigerators_freezers</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/refrigerators</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/air_purifiers_cleaners</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/water_coolers</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/computers</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/set_top_boxes_cable_boxes</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/audiovideo</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/televisions</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/commercial_ovens</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/vending_machines</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/commercial_ice_makers</t>
+  </si>
+  <si>
     <t>commercial oven</t>
   </si>
   <si>
@@ -188,12 +252,6 @@
     <t>see calculation 2</t>
   </si>
   <si>
-    <t>Note 1:</t>
-  </si>
-  <si>
-    <t>Note 2:</t>
-  </si>
-  <si>
     <t>Cells colors in yellow are centerpoints of ranges given on the</t>
   </si>
   <si>
@@ -209,6 +267,15 @@
     <t>battery chargers</t>
   </si>
   <si>
+    <t>http://www.energystar.gov/certified-products/detail/pool_pumps</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/imaging_equipment</t>
+  </si>
+  <si>
+    <t>http://www.energystar.gov/certified-products/detail/battery_chargers?fuseaction=find_a_product.showProductGroup&amp;pgw_code=BCH</t>
+  </si>
+  <si>
     <t>Model incandescent bulb</t>
   </si>
   <si>
@@ -275,94 +342,25 @@
     <t>Rural Residential</t>
   </si>
   <si>
-    <t>https://www.energystar.gov/products/heating_cooling/boilers</t>
-  </si>
-  <si>
-    <t>https://www.energystar.gov/products/heating_cooling/commercial_boilers</t>
-  </si>
-  <si>
-    <t>https://www.energystar.gov/products/heating_cooling/furnaces</t>
-  </si>
-  <si>
-    <t>https://www.energystar.gov/products/heating_cooling/air_conditioning_central</t>
-  </si>
-  <si>
-    <t>https://www.energystar.gov/products/heating_cooling/air_conditioning_room</t>
-  </si>
-  <si>
-    <t>https://www.energystar.gov/products/heating_cooling/fans_ventilating</t>
-  </si>
-  <si>
-    <t>https://www.energystar.gov/products/heating_cooling/heat_pumps_air_source</t>
-  </si>
-  <si>
-    <t>https://www.energystar.gov/products/heating_cooling/heat_pumps_geothermal</t>
-  </si>
-  <si>
-    <t>https://www.energystar.gov/products/lighting_fans/ceiling_fans</t>
-  </si>
-  <si>
-    <t>https://www.energystar.gov/products/building_products/residential_windows_doors_and_skylights</t>
-  </si>
-  <si>
-    <t>https://www.energystar.gov/products/building_products/roof_products</t>
-  </si>
-  <si>
-    <t>https://www.energystar.gov/products/appliances/clothes_washers</t>
-  </si>
-  <si>
-    <t>https://www.energystar.gov/products/appliances/commercial_clothes_washers</t>
-  </si>
-  <si>
-    <t>https://www.energystar.gov/products/appliances/dishwashers</t>
-  </si>
-  <si>
-    <t>https://www.energystar.gov/products/appliances/freezers</t>
-  </si>
-  <si>
-    <t>https://www.energystar.gov/products/commercial_food_service_equipment/commercial_refrigerators_freezers</t>
-  </si>
-  <si>
-    <t>https://www.energystar.gov/products/appliances/refrigerators</t>
-  </si>
-  <si>
-    <t>https://www.energystar.gov/products/appliances/air_purifiers_cleaners</t>
-  </si>
-  <si>
-    <t>https://www.energystar.gov/products/other/water_coolers</t>
-  </si>
-  <si>
-    <t>https://www.energystar.gov/products/commercial_food_service_equipment/commercial_ovens</t>
-  </si>
-  <si>
-    <t>https://www.energystar.gov/products/other/vending_machines</t>
-  </si>
-  <si>
-    <t>https://www.energystar.gov/products/commercial_food_service_equipment/commercial_ice_makers</t>
-  </si>
-  <si>
-    <t>https://www.energystar.gov/products/other/pool_pumps</t>
-  </si>
-  <si>
-    <t>https://www.energystar.gov/products/office_equipment/imaging_equipment</t>
-  </si>
-  <si>
-    <t>link no longer available</t>
-  </si>
-  <si>
-    <t>https://www.energystar.gov/products/electronics/set_top_boxes_cable_boxes</t>
-  </si>
-  <si>
-    <t>https://www.energystar.gov/products/electronics/audiovideo</t>
-  </si>
-  <si>
-    <t>https://www.energystar.gov/products/electronics/televisions</t>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>This variable reflects the difference in energy use between</t>
+  </si>
+  <si>
+    <t>rebate-qualifying components and the component</t>
+  </si>
+  <si>
+    <t>standard.</t>
+  </si>
+  <si>
+    <t>Percent Difference in E Use (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -453,7 +451,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -463,6 +461,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -477,9 +476,12 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -521,6 +523,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -617,23 +622,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -669,23 +657,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -861,10 +832,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -873,7 +846,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -891,58 +864,72 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
+      <c r="A9" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>15</v>
+      <c r="A10" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>16</v>
+      <c r="A11" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>18</v>
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>54</v>
+      <c r="A15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>68</v>
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -952,19 +939,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="6" customWidth="1"/>
     <col min="5" max="5" width="21.140625" customWidth="1"/>
     <col min="6" max="6" width="30.28515625" customWidth="1"/>
   </cols>
@@ -977,10 +964,10 @@
         <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -990,655 +977,674 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>74</v>
+      <c r="A2" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>0.06</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>0.06</v>
       </c>
-      <c r="E2" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>82</v>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>74</v>
+      <c r="A3" s="31" t="s">
+        <v>99</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="27">
         <f>AVERAGE(0.12,0.16)</f>
         <v>0.14000000000000001</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>13</v>
+      <c r="D3" s="9"/>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="11">
+      <c r="A4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="12">
         <f>AVERAGE(C2:C3)</f>
         <v>0.1</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="12">
         <f>AVERAGE(D2:D3)</f>
         <v>0.06</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>0.15</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="8">
         <v>0.15</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>14</v>
+      <c r="E6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>72</v>
+      <c r="A7" s="31" t="s">
+        <v>97</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>0.15</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>13</v>
+      <c r="D7" s="8"/>
+      <c r="E7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>72</v>
+      <c r="A8" s="31" t="s">
+        <v>97</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>0.7</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <v>0.7</v>
       </c>
-      <c r="E8" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>14</v>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>72</v>
+      <c r="A9" s="31" t="s">
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="7">
+        <v>32</v>
+      </c>
+      <c r="C9" s="8">
         <v>0.09</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>13</v>
+      <c r="D9" s="9"/>
+      <c r="E9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>72</v>
+      <c r="A10" s="31" t="s">
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="7">
+        <v>33</v>
+      </c>
+      <c r="C10" s="8">
         <v>0.45</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="8">
         <v>0.45</v>
       </c>
-      <c r="E10" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>14</v>
+      <c r="E10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>72</v>
+      <c r="A11" s="31" t="s">
+        <v>97</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="8">
         <v>0.6</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10">
+      <c r="D11" s="9"/>
+      <c r="E11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11">
         <f>AVERAGE(C6:C11)</f>
         <v>0.35666666666666669</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="11">
         <f>AVERAGE(D6:D11)</f>
         <v>0.43333333333333335</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>73</v>
+      <c r="A14" s="6" t="s">
+        <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="23">
+        <v>34</v>
+      </c>
+      <c r="C14" s="27">
         <f>AVERAGE(0.07,0.15)</f>
         <v>0.11</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="27">
         <f>AVERAGE(0.07,0.15)</f>
         <v>0.11</v>
       </c>
-      <c r="E14" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>14</v>
+      <c r="E14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>73</v>
+      <c r="A15" s="31" t="s">
+        <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="24">
+        <v>35</v>
+      </c>
+      <c r="C15" s="28">
         <f>AVERAGE(0.1,0.15)</f>
         <v>0.125</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="28">
         <f>AVERAGE(0.1,0.15)</f>
         <v>0.125</v>
       </c>
-      <c r="E15" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>14</v>
+      <c r="E15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10">
+      <c r="A16" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11">
         <f>AVERAGE(C14:C15)</f>
         <v>0.11749999999999999</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="11">
         <f>AVERAGE(D14:D15)</f>
         <v>0.11749999999999999</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="13">
+      <c r="A18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="15">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="15">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E18" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>14</v>
+      <c r="E18" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="11">
+      <c r="A19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="12">
         <f>AVERAGE(C18:C18)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="12">
         <f>AVERAGE(D18:D18)</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="15">
+        <v>39</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="18">
         <v>0.2</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="18">
         <v>0.37</v>
       </c>
-      <c r="E21" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>93</v>
+      <c r="E21" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="15">
+      <c r="A22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="18">
         <v>0.17</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="18">
         <v>0.4</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="D23" s="18">
+        <v>0.35</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="D24" s="18">
+        <v>0.35</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="18">
+        <v>0.4</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F22" s="29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="D23" s="15">
-        <v>0.35</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="D24" s="15">
-        <v>0.35</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15">
+      <c r="C29" s="18"/>
+      <c r="D29" s="18">
         <v>0.15</v>
       </c>
-      <c r="E29" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>102</v>
+      <c r="E29" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="11">
+      <c r="A30" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="12">
         <f>AVERAGE(C21:C29)</f>
         <v>0.21399999999999997</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="12">
         <f>AVERAGE(D21:D29)</f>
         <v>0.35250000000000004</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="25">
+        <v>77</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="29">
         <f>AVERAGE(0.3,0.72)</f>
         <v>0.51</v>
       </c>
-      <c r="E32" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>13</v>
+      <c r="E32" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="25">
+      <c r="A33" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="29">
         <f>AVERAGE(0.4,0.55)</f>
         <v>0.47500000000000003</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="29">
         <f>AVERAGE(0.4,0.55)</f>
         <v>0.47500000000000003</v>
       </c>
-      <c r="E33" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>14</v>
+      <c r="E33" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="31" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="28">
+      <c r="A34" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="32">
         <v>0.3</v>
       </c>
-      <c r="D34" s="28">
+      <c r="D34" s="32">
         <v>0.3</v>
       </c>
-      <c r="E34" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>14</v>
+      <c r="E34" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="31" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="22">
+      <c r="A35" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="26">
         <f>AVERAGE(0.3,0.65)</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="26">
         <f>AVERAGE(0.3,0.65)</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="E35" s="32" t="str">
-        <f>E34</f>
-        <v>link no longer available</v>
-      </c>
-      <c r="F35" s="27" t="s">
-        <v>14</v>
+      <c r="E35" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" s="31" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="15">
+      <c r="A36" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="18">
         <v>0.45</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="18">
         <v>0.45</v>
       </c>
-      <c r="E36" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="F36" s="27" t="s">
-        <v>14</v>
+      <c r="E36" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="33">
+      <c r="A37" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="37">
         <f>AVERAGE(0.45,0.6)</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="D37" s="33">
+      <c r="D37" s="37">
         <f>AVERAGE(0.45,0.6)</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="E37" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>14</v>
+      <c r="E37" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="15">
+      <c r="A38" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="18">
         <v>0.25</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D38" s="18">
         <v>0.25</v>
       </c>
-      <c r="E38" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>14</v>
+      <c r="E38" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="31" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="11">
+      <c r="A39" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="12">
         <f>AVERAGE(C32:C38)</f>
         <v>0.42642857142857149</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="12">
         <f>AVERAGE(D32:D38)</f>
         <v>0.41250000000000003</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E35" r:id="rId1" display="http://www.energystar.gov/certified-products/detail/computers" xr:uid="{DDEA9114-C89A-488D-8B82-9A66CFCCB0A0}"/>
+    <hyperlink ref="E6" r:id="rId1"/>
+    <hyperlink ref="E7" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId3"/>
+    <hyperlink ref="E8" r:id="rId4"/>
+    <hyperlink ref="E3" r:id="rId5"/>
+    <hyperlink ref="E9" r:id="rId6"/>
+    <hyperlink ref="E10" r:id="rId7"/>
+    <hyperlink ref="E11" r:id="rId8"/>
+    <hyperlink ref="E21" r:id="rId9"/>
+    <hyperlink ref="F21" r:id="rId10"/>
+    <hyperlink ref="F22" r:id="rId11"/>
+    <hyperlink ref="E23" r:id="rId12"/>
+    <hyperlink ref="E25" r:id="rId13"/>
+    <hyperlink ref="F26" r:id="rId14"/>
+    <hyperlink ref="E35" r:id="rId15"/>
+    <hyperlink ref="E36" r:id="rId16"/>
+    <hyperlink ref="E37" r:id="rId17"/>
+    <hyperlink ref="E38" r:id="rId18"/>
+    <hyperlink ref="F23" r:id="rId19"/>
+    <hyperlink ref="E24" r:id="rId20"/>
+    <hyperlink ref="F27" r:id="rId21"/>
+    <hyperlink ref="F28" r:id="rId22"/>
+    <hyperlink ref="F29" r:id="rId23"/>
+    <hyperlink ref="E32" r:id="rId24"/>
+    <hyperlink ref="E33" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -1648,131 +1654,133 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" style="16" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="25" style="20" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="20" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>64</v>
+      <c r="A1" s="23" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="16">
+      <c r="A2" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="20">
         <v>75</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>62</v>
+      <c r="C2" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="16">
+      <c r="A3" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="20">
         <v>53</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>62</v>
+      <c r="C3" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="16">
+      <c r="A4" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="20">
         <f>0.3*B2</f>
         <v>22.5</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>62</v>
+      <c r="C4" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="34">
+      <c r="A5" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="38">
         <f>(B3-B4)/B3</f>
         <v>0.57547169811320753</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>63</v>
+      <c r="A7" s="23" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="16">
+      <c r="A8" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="20">
         <v>355</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>47</v>
+      <c r="C8" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="16">
+      <c r="A9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="20">
         <v>295</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>48</v>
+      <c r="C9" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="35">
+      <c r="A10" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="39">
         <f>(B8-B9)/B8</f>
         <v>0.16901408450704225</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="D9" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="D3" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="D4" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="D8" r:id="rId1"/>
+    <hyperlink ref="D9" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -1783,119 +1791,122 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="3" width="19" style="8" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="8" customWidth="1"/>
+    <col min="2" max="3" width="19" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>78</v>
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="36">
+      <c r="A2" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="40">
         <f>-Data!C4</f>
         <v>-0.1</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="40">
         <f>B2</f>
         <v>-0.1</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="40">
         <f>-Data!D4</f>
         <v>-0.06</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="36">
+      <c r="A3" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="40">
         <f>-Data!C12</f>
         <v>-0.35666666666666669</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="40">
         <f t="shared" ref="C3:C7" si="0">B3</f>
         <v>-0.35666666666666669</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="40">
         <f>-Data!D12</f>
         <v>-0.43333333333333335</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="36">
+      <c r="A4" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="40">
         <f>-Data!C16</f>
         <v>-0.11749999999999999</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="40">
         <f t="shared" si="0"/>
         <v>-0.11749999999999999</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="40">
         <f>-Data!D16</f>
         <v>-0.11749999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="36">
+      <c r="A5" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="40">
         <f>-Data!C19</f>
         <v>-0.57999999999999996</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="40">
         <f t="shared" si="0"/>
         <v>-0.57999999999999996</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="40">
         <f>-Data!D19</f>
         <v>-0.57999999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="36">
+      <c r="A6" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="40">
         <f>-Data!C30</f>
         <v>-0.21399999999999997</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="40">
         <f t="shared" si="0"/>
         <v>-0.21399999999999997</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="40">
         <f>-Data!D30</f>
         <v>-0.35250000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="36">
+      <c r="A7" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="40">
         <f>-Data!C39</f>
         <v>-0.42642857142857149</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="40">
         <f t="shared" si="0"/>
         <v>-0.42642857142857149</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="40">
         <f>-Data!D39</f>
         <v>-0.41250000000000003</v>
       </c>
